--- a/Assignment1_AutoFilled.xlsx
+++ b/Assignment1_AutoFilled.xlsx
@@ -441,14 +441,17 @@
       <c r="C2" t="str">
         <v>S</v>
       </c>
+      <c r="D2" t="str">
+        <v>suba udhaeesanak veevaa.</v>
+      </c>
       <c r="E2" t="str">
         <v>සුබ උදෑසනක් වේවා.</v>
       </c>
       <c r="F2" t="str">
-        <v>සුබ උදෑසනක් වේවා.</v>
+        <v>suba udhaeesanak veevaa.</v>
       </c>
       <c r="G2" t="str">
-        <v>Pass</v>
+        <v>DONE</v>
       </c>
       <c r="H2" t="str" xml:space="preserve">
         <v xml:space="preserve">• The greeting meaning is correctly preserved in English as “Good morning / May you have a good morning”._x000d_
@@ -1486,7 +1489,7 @@
 ඔයා එනවද මාත් එක්ක යන්න?</v>
       </c>
       <c r="F31" t="str">
-        <v>mama gedhara yanavaa.oyaa enavadha maath ekka yanna?</v>
+        <v>mama gedhara yanavaa.oyaa enavadha maath ekka kaleeya.</v>
       </c>
       <c r="G31" t="str">
         <v>DONE</v>
@@ -1520,7 +1523,7 @@
         <v>මම   ගෙදර    යනවා.</v>
       </c>
       <c r="F32" t="str">
-        <v>mama kaleeya.anavaa.</v>
+        <v>mama   gedhara    yanavaa.</v>
       </c>
       <c r="G32" t="str">
         <v>DONE</v>
@@ -1554,7 +1557,7 @@
         <v>Documents ටික attach කරලා මට email එකක් එවන්න.</v>
       </c>
       <c r="F33" t="str">
-        <v>mama kaleeya.a attach karalaa mata email ekak evanna.</v>
+        <v>Documents tika attach karalaa mata email ekak evanna.</v>
       </c>
       <c r="G33" t="str">
         <v>DONE</v>
